--- a/src/result/result51.xlsx
+++ b/src/result/result51.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Column Details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Statistical Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data Quality" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,9 +430,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="70" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,6 +500,227 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Source (filtered): 0.00, Output: 0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test Case 4: Schema Validation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>All expected columns present, no extra columns</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test Case 5: Data Type Validation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Numeric columns validation: 9/9 valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Test Case 6: Null Value Analysis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Null count match for all columns: True</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test Case 7: Boundary Testing - Upper Bound</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Max Area: 274.00, Area=300 count: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test Case 8: Boundary Testing - Lower Bound</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Min Area: 0.00, Area&lt;=1 count: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test Case 9: Duplicate Country Detection</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Duplicate countries: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test Case 10: Filter Completeness</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00% records have Area &lt; 300, Invalid: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Test Case 11: Statistical Validation - Area Column</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mean: 76.08, Median: 28.00, Min: 0.00, Max: 274.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Test Case 12: Statistical Validation - GDP Column</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sum: 28242600000.00, Mean: 1227939130.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Test Case 13: Data Consistency - Non-Null Counts</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Non-null counts match for all columns: True</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Test Case 14: Output File Structure Validation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dir exists: True, Part files: True, Success file: True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Test Case 15: Row Integrity Check</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No data loss: True, No extra rows: True, Perfect match: True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Test Case 16: Numeric Range Validation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>All numeric ranges valid: True</t>
         </is>
       </c>
     </row>
@@ -827,4 +1050,849 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Column</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Source_Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Output_Mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Source_Median</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Output_Median</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Source_Min</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Output_Min</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Source_Max</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Output_Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>274.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>274.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BirthRate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DeathRate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DebtExternal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1446734533.33</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1446734533.33</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70000000.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70000000.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18000000000.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>18000000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ElectricityConsumption</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>308224933.33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>308224933.33</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>96760000.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96760000.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1674000.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1674000.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1772000000.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1772000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ElectricityProduction</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>312420000.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>312420000.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104000000.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>104000000.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1800000.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1800000.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1719000000.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1719000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>317726260.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>317726260.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9050000.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9050000.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>98000.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>98000.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2580000000.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2580000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1227939130.43</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1227939130.43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>500000000.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>500000000.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1500000.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1500000.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9100000000.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9100000000.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Column</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Records</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Null_Count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Null_Percentage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Non_Null_Count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Min_Value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>274.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BirthRate</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.22%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CurrentAccountBalance</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DeathRate</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.22%</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DebtExternal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.39%</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>18000000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ElectricityConsumption</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>69.39%</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1674000.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1772000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ElectricityProduction</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.47%</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1800000.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1719000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.18%</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>98000.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2580000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.06%</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1500000.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>9100000000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Duplicates: 0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>